--- a/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
+++ b/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://feemit-my.sharepoint.com/personal/federica_inzoli_feem_it/Documents/REP/CIVICS Ghana/Ghana Energy Model/African Energy/Ghana-10Nodes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{8129B5E9-11B0-4EE7-8AD7-5F17D01C1572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6F86C9E-B8CC-4B86-B330-F08905C20832}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB39F68D-FC4E-4086-B0E6-5D227D379E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
   <si>
     <t>Tech</t>
   </si>
@@ -57,18 +57,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>WSTR</t>
-  </si>
-  <si>
-    <t>MTKR</t>
-  </si>
-  <si>
-    <t>NBOR</t>
-  </si>
-  <si>
-    <t>CSTR</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -78,63 +66,12 @@
     <t>Color</t>
   </si>
   <si>
-    <t>HFO_pp</t>
-  </si>
-  <si>
-    <t>GT_pp</t>
-  </si>
-  <si>
-    <t>geo_pp</t>
-  </si>
-  <si>
-    <t>L_hydro_pp</t>
-  </si>
-  <si>
-    <t>S_hydro_pp</t>
-  </si>
-  <si>
-    <t>on_wind_pp</t>
-  </si>
-  <si>
-    <t>bio_pp</t>
-  </si>
-  <si>
-    <t>bio_coffee_pp</t>
-  </si>
-  <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
-    <t>Heavy Fuel Oil</t>
-  </si>
-  <si>
-    <t>Large Hydro</t>
-  </si>
-  <si>
-    <t>Small Hydro</t>
-  </si>
-  <si>
-    <t>Onshore Wind</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Coffee Biomass</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>#494949</t>
-  </si>
-  <si>
-    <t>#7C7C7C</t>
-  </si>
-  <si>
     <t>#2980B9</t>
   </si>
   <si>
@@ -150,30 +87,6 @@
     <t>#592400</t>
   </si>
   <si>
-    <t>WSTR_imp</t>
-  </si>
-  <si>
-    <t>MTKR_imp</t>
-  </si>
-  <si>
-    <t>NBOR_imp</t>
-  </si>
-  <si>
-    <t>CSTR_imp</t>
-  </si>
-  <si>
-    <t>WSTR_exp</t>
-  </si>
-  <si>
-    <t>MTKR_exp</t>
-  </si>
-  <si>
-    <t>NBOR_exp</t>
-  </si>
-  <si>
-    <t>CSTR_exp</t>
-  </si>
-  <si>
     <t>Exchange From WSTR</t>
   </si>
   <si>
@@ -222,9 +135,6 @@
     <t>#75EE6B</t>
   </si>
   <si>
-    <t>#ffb30f</t>
-  </si>
-  <si>
     <t>Imports</t>
   </si>
   <si>
@@ -243,15 +153,6 @@
     <t>External</t>
   </si>
   <si>
-    <t>Mont Kenya Region</t>
-  </si>
-  <si>
-    <t>Nairobi Region</t>
-  </si>
-  <si>
-    <t>Coast Region</t>
-  </si>
-  <si>
     <t>Western Region</t>
   </si>
   <si>
@@ -373,6 +274,51 @@
   </si>
   <si>
     <t>TV_exp</t>
+  </si>
+  <si>
+    <t>Old Hydro</t>
+  </si>
+  <si>
+    <t>New Hydro</t>
+  </si>
+  <si>
+    <t>Combined Cycle</t>
+  </si>
+  <si>
+    <t>Internal Combustion Engine</t>
+  </si>
+  <si>
+    <t>Photovoltaic</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>Upper East Region</t>
+  </si>
+  <si>
+    <t>Upper West Region</t>
+  </si>
+  <si>
+    <t>Northern Region</t>
+  </si>
+  <si>
+    <t>Brongo Ahafo Region</t>
+  </si>
+  <si>
+    <t>Ashanti Region</t>
+  </si>
+  <si>
+    <t>Central Region</t>
+  </si>
+  <si>
+    <t>Eastern Region</t>
+  </si>
+  <si>
+    <t>Greater Accra Region</t>
+  </si>
+  <si>
+    <t>Volta Region</t>
   </si>
 </sst>
 </file>
@@ -807,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -815,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -826,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -837,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -848,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -859,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -870,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -881,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -892,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -903,7 +849,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -914,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -930,7 +876,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -941,13 +887,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -955,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -966,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -977,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -988,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -999,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1010,7 +956,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1024,270 +970,450 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:O9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1427,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,10 +1438,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1323,10 +1449,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1334,10 +1460,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1345,10 +1471,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1356,10 +1482,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1367,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1378,10 +1504,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1389,10 +1515,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1400,10 +1526,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1411,10 +1537,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1422,10 +1548,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1461,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1484,23 +1610,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
+++ b/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB39F68D-FC4E-4086-B0E6-5D227D379E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5D25FD-7C84-4427-A4FB-53EE3B09C898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
   <si>
     <t>Tech</t>
   </si>
@@ -177,9 +177,6 @@
     <t>2019-01-01 00:00:00'</t>
   </si>
   <si>
-    <t>2019-12-31 23:00:00'</t>
-  </si>
-  <si>
     <t>HV_161</t>
   </si>
   <si>
@@ -319,6 +316,24 @@
   </si>
   <si>
     <t>Volta Region</t>
+  </si>
+  <si>
+    <t>2019-01-15 23:00:00'</t>
+  </si>
+  <si>
+    <t>Hydro_old</t>
+  </si>
+  <si>
+    <t>Hydro_new</t>
+  </si>
+  <si>
+    <t>CCGT_pp</t>
+  </si>
+  <si>
+    <t>GT_pp</t>
+  </si>
+  <si>
+    <t>ICE_pp</t>
   </si>
 </sst>
 </file>
@@ -740,7 +755,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -772,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -783,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -794,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -805,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -816,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -827,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -838,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -849,7 +864,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -860,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -875,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F85C9D0-FA2D-4848-A36A-6ADC242E166E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -912,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -923,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -934,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -945,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -972,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -998,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -1009,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1031,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1044,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1054,10 +1069,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" s="3"/>
       <c r="N7" s="6"/>
@@ -1065,7 +1080,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1077,7 +1092,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1088,7 +1103,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1099,7 +1114,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1110,7 +1125,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -1121,7 +1136,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1132,7 +1147,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -1143,7 +1158,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -1154,7 +1169,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -1165,7 +1180,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1176,7 +1191,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -1187,7 +1202,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -1198,7 +1213,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1209,7 +1224,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1220,7 +1235,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1231,7 +1246,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -1242,7 +1257,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -1253,7 +1268,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -1264,7 +1279,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -1275,7 +1290,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1286,62 +1301,62 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -1352,46 +1367,46 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1449,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1460,10 +1475,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1471,10 +1486,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1482,10 +1497,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1493,10 +1508,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1504,10 +1519,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1515,10 +1530,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1526,10 +1541,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1537,10 +1552,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1548,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1587,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +1615,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1626,7 +1641,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
+++ b/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5D25FD-7C84-4427-A4FB-53EE3B09C898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785D4170-3677-4196-9F90-560D529E3A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-28545" yWindow="825" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
   <si>
     <t>Tech</t>
   </si>
@@ -154,21 +154,6 @@
   </si>
   <si>
     <t>Western Region</t>
-  </si>
-  <si>
-    <t>Hydro_Old</t>
-  </si>
-  <si>
-    <t>Hydro_New</t>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>ICE</t>
   </si>
   <si>
     <t>PV</t>
@@ -401,7 +386,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,7 +402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,12 +704,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -733,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -754,16 +739,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C088BFEB-5357-40AB-A001-86E2ED77B251}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -771,111 +756,111 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -890,17 +875,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F85C9D0-FA2D-4848-A36A-6ADC242E166E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -911,67 +896,67 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -988,16 +973,16 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1005,31 +990,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1038,49 +1023,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J7" s="3"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1090,9 +1075,9 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1101,9 +1086,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1112,9 +1097,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1123,9 +1108,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -1134,9 +1119,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1145,9 +1130,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -1156,9 +1141,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -1167,9 +1152,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -1178,9 +1163,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1189,9 +1174,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -1200,9 +1185,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -1211,9 +1196,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1222,9 +1207,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1233,9 +1218,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1244,9 +1229,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -1255,9 +1240,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -1266,9 +1251,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -1277,9 +1262,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -1288,9 +1273,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1299,64 +1284,64 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -1365,51 +1350,51 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -1445,13 +1430,13 @@
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1459,114 +1444,114 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1582,27 +1567,27 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1618,30 +1603,30 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
+++ b/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://feemit-my.sharepoint.com/personal/federica_inzoli_feem_it/Documents/REP/CIVICS Ghana/Ghana Energy Model/African Energy/Ghana-10Nodes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785D4170-3677-4196-9F90-560D529E3A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="114_{F2ECB4F9-0A1C-45C9-A0A1-E2506AFEE5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{918559F3-4C56-4395-9AF3-20A7FF235C9B}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="825" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
   <si>
     <t>Tech</t>
   </si>
@@ -87,30 +87,6 @@
     <t>#592400</t>
   </si>
   <si>
-    <t>Exchange From WSTR</t>
-  </si>
-  <si>
-    <t>Exchange From MTKR</t>
-  </si>
-  <si>
-    <t>Exchange From NBOR</t>
-  </si>
-  <si>
-    <t>Exchange From CSTR</t>
-  </si>
-  <si>
-    <t>Exchange To WSTR</t>
-  </si>
-  <si>
-    <t>Exchange To MTKR</t>
-  </si>
-  <si>
-    <t>Exchange To NBOR</t>
-  </si>
-  <si>
-    <t>Exchange To CSTR</t>
-  </si>
-  <si>
     <t>#606FED</t>
   </si>
   <si>
@@ -156,6 +132,21 @@
     <t>Western Region</t>
   </si>
   <si>
+    <t>Hydro_Old</t>
+  </si>
+  <si>
+    <t>Hydro_New</t>
+  </si>
+  <si>
+    <t>CCGT</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
     <t>PV</t>
   </si>
   <si>
@@ -303,9 +294,6 @@
     <t>Volta Region</t>
   </si>
   <si>
-    <t>2019-01-15 23:00:00'</t>
-  </si>
-  <si>
     <t>Hydro_old</t>
   </si>
   <si>
@@ -319,6 +307,69 @@
   </si>
   <si>
     <t>ICE_pp</t>
+  </si>
+  <si>
+    <t>Exchange From UE</t>
+  </si>
+  <si>
+    <t>Exchange From UW</t>
+  </si>
+  <si>
+    <t>Exchange From NP</t>
+  </si>
+  <si>
+    <t>Exchange From BA</t>
+  </si>
+  <si>
+    <t>Exchange From AH</t>
+  </si>
+  <si>
+    <t>Exchange From WP</t>
+  </si>
+  <si>
+    <t>Exchange From CP</t>
+  </si>
+  <si>
+    <t>Exchange From EP</t>
+  </si>
+  <si>
+    <t>Exchange From AA</t>
+  </si>
+  <si>
+    <t>Exchange From TV</t>
+  </si>
+  <si>
+    <t>Exchange To UE</t>
+  </si>
+  <si>
+    <t>Exchange To UW</t>
+  </si>
+  <si>
+    <t>Exchange To NP</t>
+  </si>
+  <si>
+    <t>Exchange To BA</t>
+  </si>
+  <si>
+    <t>Exchange To AH</t>
+  </si>
+  <si>
+    <t>Exchange To WP</t>
+  </si>
+  <si>
+    <t>Exchange To CP</t>
+  </si>
+  <si>
+    <t>Exchange To EP</t>
+  </si>
+  <si>
+    <t>Exchange To AA</t>
+  </si>
+  <si>
+    <t>Exchange To TV</t>
+  </si>
+  <si>
+    <t>2019-12-31 23:00:00'</t>
   </si>
 </sst>
 </file>
@@ -386,7 +437,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,7 +453,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -704,12 +755,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -718,7 +769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -739,128 +790,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C088BFEB-5357-40AB-A001-86E2ED77B251}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -876,16 +927,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -893,70 +944,70 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -972,17 +1023,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H19" sqref="G19:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -990,430 +1041,430 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J7" s="3"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C39" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1427,131 +1478,131 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1567,27 +1618,27 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1599,34 +1650,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
+++ b/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://feemit-my.sharepoint.com/personal/federica_inzoli_feem_it/Documents/REP/CIVICS Ghana/Ghana Energy Model/African Energy/Ghana-10Nodes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="114_{F2ECB4F9-0A1C-45C9-A0A1-E2506AFEE5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{918559F3-4C56-4395-9AF3-20A7FF235C9B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A0517A-B806-4467-AC59-E1E61B31C341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
   <si>
     <t>Tech</t>
   </si>
@@ -130,21 +130,6 @@
   </si>
   <si>
     <t>Western Region</t>
-  </si>
-  <si>
-    <t>Hydro_Old</t>
-  </si>
-  <si>
-    <t>Hydro_New</t>
-  </si>
-  <si>
-    <t>CCGT</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>ICE</t>
   </si>
   <si>
     <t>PV</t>
@@ -812,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -823,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -834,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -845,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -856,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -867,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -878,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -889,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -900,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -911,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -927,7 +912,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -952,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -963,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -974,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -985,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -996,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1007,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1023,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H19" sqref="G19:H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,29 +1028,29 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1076,39 +1061,39 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J7" s="3"/>
       <c r="N7" s="6"/>
@@ -1116,283 +1101,283 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -1403,46 +1388,46 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1500,10 +1485,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1511,10 +1496,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1522,10 +1507,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1533,10 +1518,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1544,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1555,10 +1540,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1566,10 +1551,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1577,10 +1562,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1588,10 +1573,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1599,10 +1584,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1638,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1669,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1677,7 +1662,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
+++ b/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A0517A-B806-4467-AC59-E1E61B31C341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E77A4-D949-4475-ABBA-BF0125B98BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>Exchange To TV</t>
   </si>
   <si>
-    <t>2019-12-31 23:00:00'</t>
+    <t>2019-02-20 23:00:00'</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -740,12 +740,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -779,12 +779,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -792,7 +792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -915,13 +915,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -932,7 +932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1008,17 +1008,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
@@ -1466,13 +1466,13 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1603,14 +1603,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1635,21 +1635,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>

--- a/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
+++ b/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E77A4-D949-4475-ABBA-BF0125B98BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACD3D91-3D69-454C-BAD4-D964B9055521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="21480" yWindow="-210" windowWidth="21840" windowHeight="13290" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
   <si>
     <t>Tech</t>
   </si>
@@ -87,30 +87,12 @@
     <t>#592400</t>
   </si>
   <si>
-    <t>#606FED</t>
-  </si>
-  <si>
     <t>#ED6060</t>
   </si>
   <si>
-    <t>#EA6BEE</t>
-  </si>
-  <si>
     <t>#0E25EC</t>
   </si>
   <si>
-    <t>#EE1111</t>
-  </si>
-  <si>
-    <t>#E50EEC</t>
-  </si>
-  <si>
-    <t>#22EB11</t>
-  </si>
-  <si>
-    <t>#75EE6B</t>
-  </si>
-  <si>
     <t>Imports</t>
   </si>
   <si>
@@ -354,7 +336,70 @@
     <t>Exchange To TV</t>
   </si>
   <si>
-    <t>2019-02-20 23:00:00'</t>
+    <t>#ff4747</t>
+  </si>
+  <si>
+    <t>#ff2626</t>
+  </si>
+  <si>
+    <t>#ffa74f</t>
+  </si>
+  <si>
+    <t>#ff9326</t>
+  </si>
+  <si>
+    <t>#ffe521</t>
+  </si>
+  <si>
+    <t>#93ff61</t>
+  </si>
+  <si>
+    <t>#64ff1c</t>
+  </si>
+  <si>
+    <t>#60fcd8</t>
+  </si>
+  <si>
+    <t>#0fffc8</t>
+  </si>
+  <si>
+    <t>#85caff</t>
+  </si>
+  <si>
+    <t>#24a0ff</t>
+  </si>
+  <si>
+    <t>#8282ff</t>
+  </si>
+  <si>
+    <t>#2626ff</t>
+  </si>
+  <si>
+    <t>#bc5eff</t>
+  </si>
+  <si>
+    <t>#9e17ff</t>
+  </si>
+  <si>
+    <t>#ff6eee</t>
+  </si>
+  <si>
+    <t>#ff17e4</t>
+  </si>
+  <si>
+    <t>#ff5e8f</t>
+  </si>
+  <si>
+    <t>#ff175e</t>
+  </si>
+  <si>
+    <t>#fcc97c</t>
+  </si>
+  <si>
+    <t>#ffa61f</t>
+  </si>
+  <si>
+    <t>2019-12-31 23:00:00'</t>
   </si>
 </sst>
 </file>
@@ -406,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,9 +465,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,7 +484,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -740,12 +786,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -754,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -779,124 +825,124 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -915,13 +961,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -929,70 +975,70 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1009,16 +1055,16 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1026,430 +1072,430 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J7" s="3"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C39" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1466,128 +1512,128 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1603,27 +1649,27 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1636,33 +1682,33 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
+++ b/CIVICS_Ghana/Calliope_Ghana/Ghana-10Nodes/Graph_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CIVICS_Ghana\Calliope_Ghana\Ghana-10Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACD3D91-3D69-454C-BAD4-D964B9055521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F902BE02-3F63-4FFF-B125-D9FA9C011636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-210" windowWidth="21840" windowHeight="13290" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,7 +484,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -786,12 +786,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -825,12 +825,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -838,7 +838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -961,13 +961,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -978,7 +978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1058,13 +1058,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1131,7 +1131,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>18</v>
       </c>
@@ -1512,13 +1512,13 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1649,14 +1649,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1682,20 +1682,20 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
